--- a/RH-WebApi/App_Data/cbindex.xlsx
+++ b/RH-WebApi/App_Data/cbindex.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1016,12 +1016,6 @@
     <t>http://carriebrown.com/archives/17867</t>
   </si>
   <si>
-    <t>Chicken Cutlets with Herb Butter</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/17639</t>
-  </si>
-  <si>
     <t>Lemon Buttered Shrimp</t>
   </si>
   <si>
@@ -1620,6 +1614,12 @@
   </si>
   <si>
     <t>101 Keto Beverages</t>
+  </si>
+  <si>
+    <t>Herb Butter Chicken Cutlets</t>
+  </si>
+  <si>
+    <t>http://www.ketovangelistkitchen.com/herb-butter-chicken-cutlets/</t>
   </si>
 </sst>
 </file>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819773F0-E1F2-4255-B6F4-E7D86B3CCE13}">
   <dimension ref="A1:D482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1989,30 +1989,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s">
         <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2026,7 +2026,7 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2045,16 +2045,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2065,10 +2065,10 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2096,21 +2096,21 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2124,35 +2124,35 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2166,7 +2166,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2180,21 +2180,21 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2213,30 +2213,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2255,30 +2255,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B20" t="s">
         <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2289,10 +2289,10 @@
         <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -2320,7 +2320,7 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2339,7 +2339,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -2353,16 +2353,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
         <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -2373,7 +2373,7 @@
         <v>303</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D28" t="s">
         <v>306</v>
@@ -2384,10 +2384,10 @@
         <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
         <v>306</v>
@@ -2429,10 +2429,10 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -2474,7 +2474,7 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -2488,7 +2488,7 @@
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -2541,10 +2541,10 @@
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -2577,16 +2577,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s">
         <v>246</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -2619,58 +2619,58 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B47" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D47" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B48" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C48" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D48" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -2684,7 +2684,7 @@
         <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -2695,7 +2695,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D51" t="s">
         <v>264</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C53" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D53" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -2740,7 +2740,7 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -2782,21 +2782,21 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
         <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D58" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -2807,7 +2807,7 @@
         <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D59" t="s">
         <v>284</v>
@@ -2821,7 +2821,7 @@
         <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s">
         <v>284</v>
@@ -2832,10 +2832,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" t="s">
         <v>284</v>
@@ -2849,7 +2849,7 @@
         <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D62" t="s">
         <v>284</v>
@@ -2871,35 +2871,35 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s">
         <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B65" t="s">
         <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s">
         <v>177</v>
@@ -2922,7 +2922,7 @@
         <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -2936,7 +2936,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -2950,7 +2950,7 @@
         <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -2964,35 +2964,35 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C71" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D72" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -3006,63 +3006,63 @@
         <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C76" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C77" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D77" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -3095,30 +3095,30 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B80" t="s">
         <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s">
         <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D81" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -3137,30 +3137,30 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B84" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C84" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D84" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -3168,13 +3168,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C85" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -3227,10 +3227,10 @@
         <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -3241,7 +3241,7 @@
         <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D90" t="s">
         <v>287</v>
@@ -3255,7 +3255,7 @@
         <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D91" t="s">
         <v>287</v>
@@ -3283,7 +3283,7 @@
         <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D93" t="s">
         <v>273</v>
@@ -3291,44 +3291,44 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B94" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C94" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D94" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B95" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C95" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C96" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D96" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -3339,7 +3339,7 @@
         <v>303</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D97" t="s">
         <v>326</v>
@@ -3347,30 +3347,30 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B98" t="s">
         <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
         <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -3389,58 +3389,58 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="B101" t="s">
         <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>331</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B102" t="s">
         <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D102" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B103" t="s">
         <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B104" t="s">
         <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D104" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -3454,7 +3454,7 @@
         <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -3468,7 +3468,7 @@
         <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -3496,7 +3496,7 @@
         <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -3510,7 +3510,7 @@
         <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -3524,7 +3524,7 @@
         <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -3535,7 +3535,7 @@
         <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D111" t="s">
         <v>282</v>
@@ -3549,7 +3549,7 @@
         <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D112" t="s">
         <v>282</v>
@@ -3563,7 +3563,7 @@
         <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D113" t="s">
         <v>282</v>
@@ -3619,7 +3619,7 @@
         <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>295</v>
@@ -3647,7 +3647,7 @@
         <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D119" t="s">
         <v>292</v>
@@ -3661,7 +3661,7 @@
         <v>178</v>
       </c>
       <c r="C120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D120" t="s">
         <v>292</v>
@@ -3720,7 +3720,7 @@
         <v>98</v>
       </c>
       <c r="D124" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -3734,21 +3734,21 @@
         <v>98</v>
       </c>
       <c r="D125" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B126" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C126" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D126" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -3759,7 +3759,7 @@
         <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D127" t="s">
         <v>268</v>
@@ -3773,7 +3773,7 @@
         <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D128" t="s">
         <v>268</v>
@@ -3795,30 +3795,30 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B130" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C130" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D130" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B131" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C131" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D131" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -3843,38 +3843,38 @@
         <v>246</v>
       </c>
       <c r="C133" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D133" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B134" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C134" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D134" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C135" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D135" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -3888,21 +3888,21 @@
         <v>98</v>
       </c>
       <c r="D136" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B137" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C137" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D137" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -3916,21 +3916,21 @@
         <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s">
         <v>246</v>
       </c>
       <c r="C139" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D139" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -3938,13 +3938,13 @@
         <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C140" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D140" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -4000,35 +4000,35 @@
         <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B145" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C145" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D145" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B146" t="s">
         <v>246</v>
       </c>
       <c r="C146" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D146" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -4053,38 +4053,38 @@
         <v>246</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D148" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B149" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C149" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D149" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B150" t="s">
         <v>246</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D150" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -4123,7 +4123,7 @@
         <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D153" t="s">
         <v>304</v>
@@ -4134,10 +4134,10 @@
         <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C154" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D154" t="s">
         <v>304</v>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B155" t="s">
         <v>246</v>
       </c>
       <c r="C155" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
@@ -4162,13 +4162,13 @@
         <v>256</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C156" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D156" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
@@ -4179,10 +4179,10 @@
         <v>246</v>
       </c>
       <c r="C157" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D157" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
@@ -4207,10 +4207,10 @@
         <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D159" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
@@ -4235,7 +4235,7 @@
         <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D161" t="s">
         <v>301</v>
@@ -4249,7 +4249,7 @@
         <v>253</v>
       </c>
       <c r="C162" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D162" t="s">
         <v>301</v>
@@ -4260,13 +4260,13 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C163" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D163" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -4327,72 +4327,72 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B168" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C168" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D168" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B169" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D169" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B170" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C170" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D170" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B171" t="s">
         <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D171" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B172" t="s">
         <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D172" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
@@ -4403,7 +4403,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D173" t="s">
         <v>271</v>
@@ -4417,7 +4417,7 @@
         <v>210</v>
       </c>
       <c r="C174" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D174" t="s">
         <v>271</v>
@@ -4431,7 +4431,7 @@
         <v>253</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D175" t="s">
         <v>271</v>
@@ -4448,7 +4448,7 @@
         <v>98</v>
       </c>
       <c r="D176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -4476,21 +4476,21 @@
         <v>98</v>
       </c>
       <c r="D178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B179" t="s">
         <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D179" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -4602,7 +4602,7 @@
         <v>98</v>
       </c>
       <c r="D187" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -4621,86 +4621,86 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B189" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C189" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D189" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B190" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C190" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D190" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C191" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D191" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C192" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D192" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D193" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B194" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C194" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D194" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -4711,7 +4711,7 @@
         <v>303</v>
       </c>
       <c r="C195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D195" t="s">
         <v>328</v>
@@ -4719,16 +4719,16 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B196" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C196" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D196" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -4739,7 +4739,7 @@
         <v>303</v>
       </c>
       <c r="C197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D197" t="s">
         <v>308</v>
@@ -4747,30 +4747,30 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B198" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C198" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D198" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B199" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C199" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D199" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -4795,38 +4795,38 @@
         <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D201" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B202" t="s">
         <v>246</v>
       </c>
       <c r="C202" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D202" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C203" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D203" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -4837,7 +4837,7 @@
         <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D204" t="s">
         <v>322</v>
@@ -4848,10 +4848,10 @@
         <v>321</v>
       </c>
       <c r="B205" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D205" t="s">
         <v>322</v>
@@ -4873,30 +4873,30 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B207" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C207" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D207" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B208" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C208" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D208" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -4915,30 +4915,30 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B210" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C210" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D210" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B211" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C211" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D211" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -4963,7 +4963,7 @@
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D213" t="s">
         <v>294</v>
@@ -4971,16 +4971,16 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B214" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C214" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D214" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -5005,7 +5005,7 @@
         <v>303</v>
       </c>
       <c r="C216" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D216" t="s">
         <v>310</v>
@@ -5016,10 +5016,10 @@
         <v>237</v>
       </c>
       <c r="B217" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C217" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D217" t="s">
         <v>310</v>
@@ -5064,21 +5064,21 @@
         <v>98</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B221" t="s">
         <v>246</v>
       </c>
       <c r="C221" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D221" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
@@ -5092,7 +5092,7 @@
         <v>98</v>
       </c>
       <c r="D222" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -5103,7 +5103,7 @@
         <v>303</v>
       </c>
       <c r="C223" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D223" t="s">
         <v>317</v>
@@ -5125,16 +5125,16 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B225" t="s">
         <v>246</v>
       </c>
       <c r="C225" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D225" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
@@ -5148,35 +5148,35 @@
         <v>98</v>
       </c>
       <c r="D226" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B227" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C227" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D227" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B228" t="s">
         <v>246</v>
       </c>
       <c r="C228" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
@@ -5187,7 +5187,7 @@
         <v>181</v>
       </c>
       <c r="C229" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D229" t="s">
         <v>291</v>
@@ -5201,7 +5201,7 @@
         <v>217</v>
       </c>
       <c r="C230" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D230" t="s">
         <v>291</v>
@@ -5212,10 +5212,10 @@
         <v>290</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C231" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D231" t="s">
         <v>291</v>
@@ -5229,7 +5229,7 @@
         <v>181</v>
       </c>
       <c r="C232" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>289</v>
@@ -5243,7 +5243,7 @@
         <v>217</v>
       </c>
       <c r="C233" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D233" t="s">
         <v>289</v>
@@ -5254,10 +5254,10 @@
         <v>288</v>
       </c>
       <c r="B234" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C234" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D234" t="s">
         <v>289</v>
@@ -5279,16 +5279,16 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B236" t="s">
         <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D236" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -5296,13 +5296,13 @@
         <v>160</v>
       </c>
       <c r="B237" t="s">
+        <v>335</v>
+      </c>
+      <c r="C237" t="s">
+        <v>379</v>
+      </c>
+      <c r="D237" t="s">
         <v>337</v>
-      </c>
-      <c r="C237" t="s">
-        <v>381</v>
-      </c>
-      <c r="D237" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -5330,35 +5330,35 @@
         <v>98</v>
       </c>
       <c r="D239" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C240" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D240" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B241" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C241" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D241" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -5369,7 +5369,7 @@
         <v>173</v>
       </c>
       <c r="C242" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D242" t="s">
         <v>261</v>
@@ -5383,7 +5383,7 @@
         <v>178</v>
       </c>
       <c r="C243" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D243" t="s">
         <v>261</v>
@@ -5414,21 +5414,21 @@
         <v>98</v>
       </c>
       <c r="D245" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B246" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C246" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D246" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -5442,21 +5442,21 @@
         <v>98</v>
       </c>
       <c r="D247" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
+        <v>334</v>
+      </c>
+      <c r="B248" t="s">
+        <v>335</v>
+      </c>
+      <c r="C248" t="s">
+        <v>379</v>
+      </c>
+      <c r="D248" t="s">
         <v>336</v>
-      </c>
-      <c r="B248" t="s">
-        <v>337</v>
-      </c>
-      <c r="C248" t="s">
-        <v>381</v>
-      </c>
-      <c r="D248" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -5467,7 +5467,7 @@
         <v>173</v>
       </c>
       <c r="C249" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>267</v>
@@ -5489,16 +5489,16 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B251" t="s">
         <v>246</v>
       </c>
       <c r="C251" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D251" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -5517,58 +5517,58 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C253" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D253" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B254" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C254" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D254" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B255" t="s">
         <v>246</v>
       </c>
       <c r="C255" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D255" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C256" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D256" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -5582,21 +5582,21 @@
         <v>98</v>
       </c>
       <c r="D257" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B258" t="s">
         <v>246</v>
       </c>
       <c r="C258" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D258" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -5607,10 +5607,10 @@
         <v>177</v>
       </c>
       <c r="C259" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D259" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
@@ -5629,30 +5629,30 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B261" t="s">
         <v>246</v>
       </c>
       <c r="C261" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D261" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B262" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C262" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D262" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -5666,35 +5666,35 @@
         <v>98</v>
       </c>
       <c r="D263" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B264" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C264" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D264" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B265" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C265" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D265" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
@@ -5702,13 +5702,13 @@
         <v>161</v>
       </c>
       <c r="B266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C266" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D266" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
@@ -5722,21 +5722,21 @@
         <v>98</v>
       </c>
       <c r="D267" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B268" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D268" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
@@ -5750,7 +5750,7 @@
         <v>98</v>
       </c>
       <c r="D269" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
@@ -5761,7 +5761,7 @@
         <v>173</v>
       </c>
       <c r="C270" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D270" t="s">
         <v>263</v>
@@ -5775,7 +5775,7 @@
         <v>178</v>
       </c>
       <c r="C271" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D271" t="s">
         <v>263</v>
@@ -5806,7 +5806,7 @@
         <v>98</v>
       </c>
       <c r="D273" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
@@ -5820,7 +5820,7 @@
         <v>98</v>
       </c>
       <c r="D274" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
@@ -5859,7 +5859,7 @@
         <v>210</v>
       </c>
       <c r="C277" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D277" t="s">
         <v>297</v>
@@ -5873,7 +5873,7 @@
         <v>178</v>
       </c>
       <c r="C278" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D278" t="s">
         <v>297</v>
@@ -5881,44 +5881,44 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B279" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C279" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D279" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B280" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C280" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D280" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B281" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C281" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D281" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
@@ -5985,7 +5985,7 @@
         <v>303</v>
       </c>
       <c r="C286" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D286" t="s">
         <v>309</v>
@@ -5996,10 +5996,10 @@
         <v>169</v>
       </c>
       <c r="B287" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C287" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D287" t="s">
         <v>309</v>
@@ -6013,7 +6013,7 @@
         <v>177</v>
       </c>
       <c r="C288" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D288" t="s">
         <v>309</v>
@@ -6024,10 +6024,10 @@
         <v>169</v>
       </c>
       <c r="B289" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C289" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D289" t="s">
         <v>309</v>
@@ -6069,7 +6069,7 @@
         <v>303</v>
       </c>
       <c r="C292" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D292" t="s">
         <v>311</v>
@@ -6080,10 +6080,10 @@
         <v>230</v>
       </c>
       <c r="B293" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C293" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D293" t="s">
         <v>311</v>
@@ -6094,10 +6094,10 @@
         <v>230</v>
       </c>
       <c r="B294" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D294" t="s">
         <v>311</v>
@@ -6133,44 +6133,44 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B297" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C297" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D297" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B298" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C298" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D298" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B299" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C299" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D299" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
@@ -6198,7 +6198,7 @@
         <v>98</v>
       </c>
       <c r="D301" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
@@ -6212,35 +6212,35 @@
         <v>98</v>
       </c>
       <c r="D302" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B303" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C303" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D303" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B304" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C304" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D304" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
@@ -6251,7 +6251,7 @@
         <v>181</v>
       </c>
       <c r="C305" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D305" t="s">
         <v>281</v>
@@ -6265,7 +6265,7 @@
         <v>178</v>
       </c>
       <c r="C306" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D306" t="s">
         <v>281</v>
@@ -6282,35 +6282,35 @@
         <v>98</v>
       </c>
       <c r="D307" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B308" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C308" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D308" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B309" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C309" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D309" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
@@ -6335,7 +6335,7 @@
         <v>181</v>
       </c>
       <c r="C311" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D311" t="s">
         <v>279</v>
@@ -6349,7 +6349,7 @@
         <v>217</v>
       </c>
       <c r="C312" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D312" t="s">
         <v>279</v>
@@ -6360,10 +6360,10 @@
         <v>278</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C313" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D313" t="s">
         <v>279</v>
@@ -6385,16 +6385,16 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B315" t="s">
         <v>246</v>
       </c>
       <c r="C315" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D315" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
@@ -6408,21 +6408,21 @@
         <v>98</v>
       </c>
       <c r="D316" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B317" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C317" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D317" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
@@ -6436,7 +6436,7 @@
         <v>98</v>
       </c>
       <c r="D318" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
@@ -6450,21 +6450,21 @@
         <v>98</v>
       </c>
       <c r="D319" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B320" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C320" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D320" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
@@ -6478,7 +6478,7 @@
         <v>98</v>
       </c>
       <c r="D321" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
@@ -6489,7 +6489,7 @@
         <v>178</v>
       </c>
       <c r="C322" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D322" t="s">
         <v>299</v>
@@ -6497,30 +6497,30 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B323" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C323" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D323" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B324" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C324" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D324" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
@@ -6548,49 +6548,49 @@
         <v>98</v>
       </c>
       <c r="D326" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B327" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C327" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D327" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
+        <v>500</v>
+      </c>
+      <c r="B328" t="s">
         <v>502</v>
       </c>
-      <c r="B328" t="s">
-        <v>504</v>
-      </c>
       <c r="C328" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D328" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B329" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C329" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D329" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
@@ -6604,21 +6604,21 @@
         <v>98</v>
       </c>
       <c r="D330" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
+        <v>441</v>
+      </c>
+      <c r="B331" t="s">
         <v>443</v>
       </c>
-      <c r="B331" t="s">
-        <v>445</v>
-      </c>
       <c r="C331" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D331" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
@@ -6637,16 +6637,16 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B333" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C333" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D333" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -6671,10 +6671,10 @@
         <v>303</v>
       </c>
       <c r="C335" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D335" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -6707,16 +6707,16 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B338" t="s">
         <v>246</v>
       </c>
       <c r="C338" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D338" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
@@ -6727,7 +6727,7 @@
         <v>303</v>
       </c>
       <c r="C339" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D339" t="s">
         <v>324</v>
@@ -6738,10 +6738,10 @@
         <v>323</v>
       </c>
       <c r="B340" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C340" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D340" t="s">
         <v>324</v>
@@ -6758,21 +6758,21 @@
         <v>98</v>
       </c>
       <c r="D341" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B342" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C342" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D342" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
@@ -6791,30 +6791,30 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C344" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D344" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B345" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C345" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D345" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
@@ -6828,7 +6828,7 @@
         <v>98</v>
       </c>
       <c r="D346" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
@@ -6839,7 +6839,7 @@
         <v>173</v>
       </c>
       <c r="C347" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D347" t="s">
         <v>259</v>
@@ -6853,7 +6853,7 @@
         <v>253</v>
       </c>
       <c r="C348" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D348" t="s">
         <v>259</v>
@@ -6861,86 +6861,86 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>467</v>
+      </c>
+      <c r="B349" t="s">
         <v>469</v>
       </c>
-      <c r="B349" t="s">
-        <v>471</v>
-      </c>
       <c r="C349" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D349" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B350" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C350" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D350" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B351" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C351" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D351" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>432</v>
+      </c>
+      <c r="B352" t="s">
         <v>434</v>
       </c>
-      <c r="B352" t="s">
-        <v>436</v>
-      </c>
       <c r="C352" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D352" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>459</v>
+      </c>
+      <c r="B353" t="s">
         <v>461</v>
       </c>
-      <c r="B353" t="s">
-        <v>463</v>
-      </c>
       <c r="C353" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D353" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B354" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C354" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D354" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
@@ -6951,7 +6951,7 @@
         <v>303</v>
       </c>
       <c r="C355" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D355" t="s">
         <v>329</v>
@@ -7001,30 +7001,30 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B359" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C359" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D359" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B360" t="s">
         <v>246</v>
       </c>
       <c r="C360" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D360" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
@@ -7052,21 +7052,21 @@
         <v>98</v>
       </c>
       <c r="D362" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
+        <v>492</v>
+      </c>
+      <c r="B363" t="s">
         <v>494</v>
       </c>
-      <c r="B363" t="s">
-        <v>496</v>
-      </c>
       <c r="C363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D363" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
@@ -7080,49 +7080,49 @@
         <v>98</v>
       </c>
       <c r="D364" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B365" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C365" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D365" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B366" t="s">
         <v>246</v>
       </c>
       <c r="C366" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D366" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B367" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C367" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D367" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
@@ -7147,7 +7147,7 @@
         <v>303</v>
       </c>
       <c r="C369" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D369" t="s">
         <v>305</v>
@@ -7169,72 +7169,72 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B371" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C371" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D371" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B372" t="s">
         <v>246</v>
       </c>
       <c r="C372" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D372" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B373" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C373" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D373" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B374" t="s">
         <v>243</v>
       </c>
       <c r="C374" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D374" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B375" t="s">
         <v>243</v>
       </c>
       <c r="C375" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D375" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
@@ -7248,7 +7248,7 @@
         <v>98</v>
       </c>
       <c r="D376" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
@@ -7315,10 +7315,10 @@
         <v>246</v>
       </c>
       <c r="C381" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D381" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
@@ -7371,7 +7371,7 @@
         <v>181</v>
       </c>
       <c r="C385" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D385" t="s">
         <v>275</v>
@@ -7385,7 +7385,7 @@
         <v>217</v>
       </c>
       <c r="C386" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D386" t="s">
         <v>275</v>
@@ -7396,10 +7396,10 @@
         <v>274</v>
       </c>
       <c r="B387" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C387" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D387" t="s">
         <v>275</v>
@@ -7413,7 +7413,7 @@
         <v>181</v>
       </c>
       <c r="C388" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D388" t="s">
         <v>277</v>
@@ -7427,7 +7427,7 @@
         <v>217</v>
       </c>
       <c r="C389" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D389" t="s">
         <v>277</v>
@@ -7449,16 +7449,16 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B391" t="s">
         <v>246</v>
       </c>
       <c r="C391" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D391" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
@@ -7472,7 +7472,7 @@
         <v>98</v>
       </c>
       <c r="D392" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
@@ -7514,7 +7514,7 @@
         <v>98</v>
       </c>
       <c r="D395" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -7525,7 +7525,7 @@
         <v>303</v>
       </c>
       <c r="C396" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D396" t="s">
         <v>318</v>
@@ -7536,10 +7536,10 @@
         <v>228</v>
       </c>
       <c r="B397" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C397" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D397" t="s">
         <v>318</v>
@@ -7567,7 +7567,7 @@
         <v>181</v>
       </c>
       <c r="C399" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D399" t="s">
         <v>285</v>
@@ -7581,7 +7581,7 @@
         <v>217</v>
       </c>
       <c r="C400" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D400" t="s">
         <v>285</v>
@@ -7631,16 +7631,16 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B404" t="s">
         <v>246</v>
       </c>
       <c r="C404" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D404" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
@@ -7654,7 +7654,7 @@
         <v>98</v>
       </c>
       <c r="D405" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
@@ -7668,7 +7668,7 @@
         <v>98</v>
       </c>
       <c r="D406" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
@@ -7679,7 +7679,7 @@
         <v>173</v>
       </c>
       <c r="C407" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D407" t="s">
         <v>269</v>
@@ -7707,10 +7707,10 @@
         <v>173</v>
       </c>
       <c r="C409" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D409" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
@@ -7743,16 +7743,16 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B412" t="s">
         <v>246</v>
       </c>
       <c r="C412" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D412" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
@@ -7777,94 +7777,94 @@
         <v>246</v>
       </c>
       <c r="C414" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D414" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B415" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C415" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D415" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B416" t="s">
         <v>246</v>
       </c>
       <c r="C416" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D416" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
+        <v>479</v>
+      </c>
+      <c r="B417" t="s">
         <v>481</v>
       </c>
-      <c r="B417" t="s">
-        <v>483</v>
-      </c>
       <c r="C417" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D417" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B418" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C418" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
+        <v>524</v>
+      </c>
+      <c r="B419" t="s">
         <v>526</v>
       </c>
-      <c r="B419" t="s">
-        <v>528</v>
-      </c>
       <c r="C419" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D419" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B420" t="s">
+        <v>345</v>
+      </c>
+      <c r="C420" t="s">
+        <v>379</v>
+      </c>
+      <c r="D420" t="s">
         <v>347</v>
-      </c>
-      <c r="C420" t="s">
-        <v>381</v>
-      </c>
-      <c r="D420" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
@@ -7878,7 +7878,7 @@
         <v>98</v>
       </c>
       <c r="D421" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
@@ -7892,21 +7892,21 @@
         <v>98</v>
       </c>
       <c r="D422" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B423" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C423" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D423" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
@@ -7931,7 +7931,7 @@
         <v>173</v>
       </c>
       <c r="C425" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D425" t="s">
         <v>260</v>
@@ -7995,16 +7995,16 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B430" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C430" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D430" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -8037,16 +8037,16 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B433" t="s">
         <v>177</v>
       </c>
       <c r="C433" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D433" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
@@ -8057,7 +8057,7 @@
         <v>303</v>
       </c>
       <c r="C434" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D434" t="s">
         <v>316</v>
@@ -8068,10 +8068,10 @@
         <v>53</v>
       </c>
       <c r="B435" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C435" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D435" t="s">
         <v>316</v>
@@ -8107,44 +8107,44 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B438" t="s">
         <v>246</v>
       </c>
       <c r="C438" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D438" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B439" t="s">
         <v>246</v>
       </c>
       <c r="C439" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D439" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B440" t="s">
         <v>173</v>
       </c>
       <c r="C440" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D440" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -8155,7 +8155,7 @@
         <v>173</v>
       </c>
       <c r="C441" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D441" t="s">
         <v>266</v>
@@ -8163,16 +8163,16 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B442" t="s">
         <v>246</v>
       </c>
       <c r="C442" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D442" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -8183,7 +8183,7 @@
         <v>303</v>
       </c>
       <c r="C443" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D443" t="s">
         <v>312</v>
@@ -8194,10 +8194,10 @@
         <v>226</v>
       </c>
       <c r="B444" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C444" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D444" t="s">
         <v>312</v>
@@ -8208,10 +8208,10 @@
         <v>226</v>
       </c>
       <c r="B445" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C445" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D445" t="s">
         <v>312</v>
@@ -8233,16 +8233,16 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B447" t="s">
         <v>246</v>
       </c>
       <c r="C447" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D447" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
@@ -8256,7 +8256,7 @@
         <v>98</v>
       </c>
       <c r="D448" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
@@ -8270,7 +8270,7 @@
         <v>98</v>
       </c>
       <c r="D449" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
@@ -8281,7 +8281,7 @@
         <v>303</v>
       </c>
       <c r="C450" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D450" t="s">
         <v>315</v>
@@ -8292,10 +8292,10 @@
         <v>18</v>
       </c>
       <c r="B451" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C451" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D451" t="s">
         <v>315</v>
@@ -8323,7 +8323,7 @@
         <v>303</v>
       </c>
       <c r="C453" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D453" t="s">
         <v>320</v>
@@ -8337,7 +8337,7 @@
         <v>303</v>
       </c>
       <c r="C454" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D454" t="s">
         <v>314</v>
@@ -8348,10 +8348,10 @@
         <v>313</v>
       </c>
       <c r="B455" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C455" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D455" t="s">
         <v>314</v>
@@ -8362,10 +8362,10 @@
         <v>313</v>
       </c>
       <c r="B456" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C456" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D456" t="s">
         <v>314</v>
@@ -8421,10 +8421,10 @@
         <v>246</v>
       </c>
       <c r="C460" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D460" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
@@ -8435,7 +8435,7 @@
         <v>181</v>
       </c>
       <c r="C461" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D461" t="s">
         <v>283</v>
@@ -8449,7 +8449,7 @@
         <v>217</v>
       </c>
       <c r="C462" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D462" t="s">
         <v>283</v>
@@ -8460,10 +8460,10 @@
         <v>47</v>
       </c>
       <c r="B463" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C463" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D463" t="s">
         <v>283</v>
@@ -8485,30 +8485,30 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B465" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C465" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D465" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B466" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C466" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D466" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
@@ -8536,7 +8536,7 @@
         <v>98</v>
       </c>
       <c r="D468" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
@@ -8550,7 +8550,7 @@
         <v>98</v>
       </c>
       <c r="D469" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
@@ -8578,7 +8578,7 @@
         <v>98</v>
       </c>
       <c r="D471" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
@@ -8620,7 +8620,7 @@
         <v>98</v>
       </c>
       <c r="D474" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
@@ -8634,7 +8634,7 @@
         <v>98</v>
       </c>
       <c r="D475" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
@@ -8690,7 +8690,7 @@
         <v>98</v>
       </c>
       <c r="D479" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
@@ -8704,7 +8704,7 @@
         <v>98</v>
       </c>
       <c r="D480" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -8718,21 +8718,21 @@
         <v>98</v>
       </c>
       <c r="D481" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B482" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C482" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D482" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/RH-WebApi/App_Data/cbindex.xlsx
+++ b/RH-WebApi/App_Data/cbindex.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="509">
   <si>
     <t>Four Cheese Tarragon Sausage Casserole</t>
   </si>
@@ -536,9 +536,6 @@
     <t>Mushroom Pizza Bites</t>
   </si>
   <si>
-    <t>Ketovangelist Kitchen</t>
-  </si>
-  <si>
     <t>http://www.ketovangelistkitchen.com/mushroom-pizza-bites/</t>
   </si>
   <si>
@@ -809,9 +806,6 @@
     <t>http://carriebrown.com/archives/26866</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25449</t>
-  </si>
-  <si>
     <t>Meringue Cookies</t>
   </si>
   <si>
@@ -827,12 +821,6 @@
     <t>http://carriebrown.com/archives/22130</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25631</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/23935</t>
-  </si>
-  <si>
     <t>http://carriebrown.com/archives/22650</t>
   </si>
   <si>
@@ -848,12 +836,6 @@
     <t>http://carriebrown.com/archives/21158</t>
   </si>
   <si>
-    <t>Sausage Mushroom Bake</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/26480</t>
-  </si>
-  <si>
     <t>Sausage Scramble</t>
   </si>
   <si>
@@ -872,18 +854,12 @@
     <t>http://carriebrown.com/archives/24023</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/22385</t>
-  </si>
-  <si>
     <t>http://carriebrown.com/archives/22098</t>
   </si>
   <si>
     <t>http://carriebrown.com/archives/21830</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/21447</t>
-  </si>
-  <si>
     <t>Cheesy Pea Shoot Scramble</t>
   </si>
   <si>
@@ -902,24 +878,15 @@
     <t>http://carriebrown.com/archives/19845</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29445</t>
-  </si>
-  <si>
     <t>Hot Chocolate</t>
   </si>
   <si>
     <t>http://carriebrown.com/archives/26869</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/26080</t>
-  </si>
-  <si>
     <t>Mint Chocolate Pudding</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/20972</t>
-  </si>
-  <si>
     <t>Peanut Butter Ice Cream</t>
   </si>
   <si>
@@ -941,9 +908,6 @@
     <t>http://carriebrown.com/archives/29108</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/28940</t>
-  </si>
-  <si>
     <t>http://carriebrown.com/archives/28885</t>
   </si>
   <si>
@@ -953,18 +917,6 @@
     <t>http://carriebrown.com/archives/26045</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25261</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/25484</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/25150</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/25066</t>
-  </si>
-  <si>
     <t>Turkey Burger Salad</t>
   </si>
   <si>
@@ -974,21 +926,9 @@
     <t>http://carriebrown.com/archives/24867</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/17673</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/21631</t>
-  </si>
-  <si>
     <t>http://carriebrown.com/archives/19763</t>
   </si>
   <si>
-    <t>Turkey and Mushroom Stroganoff</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/19757</t>
-  </si>
-  <si>
     <t>Grilled Lemon Prawns with Coconut Cream Squash Noodles</t>
   </si>
   <si>
@@ -1013,9 +953,6 @@
     <t>http://carriebrown.com/archives/18515</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/17867</t>
-  </si>
-  <si>
     <t>Lemon Buttered Shrimp</t>
   </si>
   <si>
@@ -1025,9 +962,6 @@
     <t>http://carriebrown.com/archives/16858</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/16852</t>
-  </si>
-  <si>
     <t>Lemon Sauce</t>
   </si>
   <si>
@@ -1037,9 +971,6 @@
     <t>http://carriebrown.com/archives/25609</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25455</t>
-  </si>
-  <si>
     <t>Strawberry Jam</t>
   </si>
   <si>
@@ -1055,9 +986,6 @@
     <t>Spiced Cauliflower Soup</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/21063</t>
-  </si>
-  <si>
     <t>Leek and Cauliflower Soup</t>
   </si>
   <si>
@@ -1121,9 +1049,6 @@
     <t>http://carriebrown.com/archives/29121</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29042</t>
-  </si>
-  <si>
     <t>Tarragon Green Beans</t>
   </si>
   <si>
@@ -1163,9 +1088,6 @@
     <t>Bacon, Leek, Chicken Ragout</t>
   </si>
   <si>
-    <t>Carrie Brown | Life in the Sane Lane</t>
-  </si>
-  <si>
     <t>https://rhop.me/KetoIceCream</t>
   </si>
   <si>
@@ -1620,6 +1542,15 @@
   </si>
   <si>
     <t>http://www.ketovangelistkitchen.com/herb-butter-chicken-cutlets/</t>
+  </si>
+  <si>
+    <t>FREE RECIPES - Ketovangelist Kitchen</t>
+  </si>
+  <si>
+    <t>FREE RECIPES - Carrie Brown | Life in the Sane Lane</t>
+  </si>
+  <si>
+    <t>http://www.ketovangelistkitchen.com/mint-chocolate-pudding/</t>
   </si>
 </sst>
 </file>
@@ -1973,46 +1904,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819773F0-E1F2-4255-B6F4-E7D86B3CCE13}">
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.46484375" customWidth="1"/>
+    <col min="2" max="2" width="43.265625" customWidth="1"/>
+    <col min="3" max="3" width="41.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2020,13 +1951,13 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2040,49 +1971,49 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" t="s">
         <v>251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2090,27 +2021,27 @@
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2118,41 +2049,41 @@
         <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C11" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2160,13 +2091,13 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2174,27 +2105,27 @@
         <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C15" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2202,111 +2133,111 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D19" t="s">
         <v>249</v>
-      </c>
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D22" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -2314,13 +2245,13 @@
         <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2334,12 +2265,12 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -2348,63 +2279,63 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D27" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>506</v>
+      </c>
+      <c r="D28" t="s">
         <v>203</v>
-      </c>
-      <c r="B28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -2418,49 +2349,49 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" t="s">
         <v>219</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>379</v>
-      </c>
-      <c r="D32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" t="s">
         <v>219</v>
-      </c>
-      <c r="B34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -2468,13 +2399,13 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -2482,13 +2413,13 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
         <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -2502,7 +2433,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -2516,7 +2447,7 @@
         <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -2530,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -2538,13 +2469,13 @@
         <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -2552,13 +2483,13 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>506</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -2566,27 +2497,27 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -2600,7 +2531,7 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -2614,63 +2545,63 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C46" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D47" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B48" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="B49" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C49" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -2678,55 +2609,55 @@
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
         <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C53" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D53" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -2734,13 +2665,13 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -2748,10 +2679,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
         <v>182</v>
@@ -2762,13 +2693,13 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -2776,27 +2707,27 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -2804,13 +2735,13 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D59" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -2818,13 +2749,13 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -2832,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -2846,13 +2777,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -2860,55 +2791,55 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -2916,13 +2847,13 @@
         <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
         <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -2930,13 +2861,13 @@
         <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -2944,13 +2875,13 @@
         <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -2958,41 +2889,41 @@
         <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D71" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C72" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D72" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -3000,69 +2931,69 @@
         <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
         <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D76" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B77" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D77" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -3076,7 +3007,7 @@
         <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -3090,35 +3021,35 @@
         <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D80" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D81" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -3126,41 +3057,41 @@
         <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D83" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -3168,13 +3099,13 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -3182,13 +3113,13 @@
         <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -3202,63 +3133,63 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>506</v>
+      </c>
+      <c r="D88" t="s">
         <v>195</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D90" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -3272,105 +3203,105 @@
         <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B94" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="C94" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D94" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B95" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C95" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D95" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C96" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D96" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D98" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C99" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -3384,326 +3315,326 @@
         <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D101" t="s">
-        <v>531</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D102" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
         <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
         <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
         <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D110" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>506</v>
+      </c>
+      <c r="D111" t="s">
         <v>212</v>
-      </c>
-      <c r="B111" t="s">
-        <v>181</v>
-      </c>
-      <c r="C111" t="s">
-        <v>379</v>
-      </c>
-      <c r="D111" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" t="s">
+        <v>506</v>
+      </c>
+      <c r="D112" t="s">
         <v>212</v>
-      </c>
-      <c r="B112" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" t="s">
-        <v>379</v>
-      </c>
-      <c r="D112" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>295</v>
+        <v>98</v>
+      </c>
+      <c r="D117" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>480</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D119" t="s">
-        <v>292</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
-      </c>
-      <c r="D120" t="s">
-        <v>292</v>
+        <v>506</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D123" t="s">
         <v>182</v>
@@ -3711,279 +3642,279 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="D124" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D125" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="B126" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="C126" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D127" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>449</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>455</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>170</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>192</v>
+        <v>98</v>
+      </c>
+      <c r="D129" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B130" t="s">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="C130" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D130" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>526</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>427</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>434</v>
+        <v>176</v>
       </c>
       <c r="C134" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>461</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D135" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>450</v>
       </c>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>455</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D136" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D137" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B138" t="s">
         <v>176</v>
       </c>
       <c r="C138" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>407</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C139" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D139" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="B140" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C140" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D140" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D143" t="s">
         <v>182</v>
@@ -3991,321 +3922,321 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D144" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>481</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D145" t="s">
-        <v>528</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D146" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="D147" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C148" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D148" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="C150" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
-        <v>422</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D151" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="C156" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D156" t="s">
-        <v>343</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>482</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>500</v>
       </c>
       <c r="C157" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D157" t="s">
-        <v>343</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>256</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D158" t="s">
-        <v>257</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>256</v>
+        <v>483</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>500</v>
       </c>
       <c r="C159" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D159" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D160" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="B161" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D161" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D162" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="B163" t="s">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C163" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D163" t="s">
-        <v>528</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D164" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D166" t="s">
         <v>182</v>
@@ -4313,147 +4244,147 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D168" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>496</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>502</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D169" t="s">
-        <v>528</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>509</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>526</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D170" t="s">
-        <v>528</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>411</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C171" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>422</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="C172" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="C174" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D174" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
         <v>98</v>
       </c>
       <c r="D176" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B177" t="s">
         <v>78</v>
@@ -4462,1866 +4393,1866 @@
         <v>56</v>
       </c>
       <c r="D177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="C178" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D178" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>468</v>
       </c>
       <c r="C179" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D179" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D180" t="s">
-        <v>184</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>172</v>
+        <v>410</v>
       </c>
       <c r="B181" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="C181" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D181" t="s">
-        <v>184</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="B182" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="C182" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>427</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D183" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D184" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D185" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D186" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="C187" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D187" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="C188" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D188" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="C189" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>349</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>494</v>
+        <v>245</v>
       </c>
       <c r="C190" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D190" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>510</v>
+        <v>387</v>
       </c>
       <c r="B191" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="C191" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D191" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B192" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C192" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D192" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
-        <v>434</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D193" t="s">
-        <v>528</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="B194" t="s">
-        <v>461</v>
+        <v>351</v>
       </c>
       <c r="C194" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D194" t="s">
-        <v>528</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>327</v>
+        <v>86</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="C195" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D195" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>511</v>
+        <v>429</v>
       </c>
       <c r="B196" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="C196" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D196" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>504</v>
       </c>
       <c r="B197" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D197" t="s">
-        <v>308</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B198" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="C198" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D198" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>486</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
+        <v>176</v>
       </c>
       <c r="C199" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D199" t="s">
-        <v>528</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D200" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>413</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="C201" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D201" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>437</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>443</v>
+        <v>209</v>
       </c>
       <c r="C203" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D203" t="s">
-        <v>528</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="B204" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="C204" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D204" t="s">
-        <v>322</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="B205" t="s">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="C205" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D205" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="B206" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C206" t="s">
-        <v>56</v>
+        <v>506</v>
       </c>
       <c r="D206" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="B207" t="s">
-        <v>461</v>
+        <v>176</v>
       </c>
       <c r="C207" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>438</v>
+        <v>115</v>
       </c>
       <c r="B208" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="C208" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D208" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="C209" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D209" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>512</v>
+        <v>116</v>
       </c>
       <c r="B210" t="s">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="C210" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D210" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="B211" t="s">
-        <v>443</v>
+        <v>66</v>
       </c>
       <c r="C211" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D211" t="s">
-        <v>528</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D212" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C213" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D213" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B214" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C214" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D214" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="B215" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C215" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D215" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B216" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D216" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D217" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B218" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="C218" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D218" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="B219" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C219" t="s">
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>182</v>
+        <v>507</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C220" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D220" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="B221" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="C221" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D221" t="s">
-        <v>422</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B222" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="C222" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D222" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="B223" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C223" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D223" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B224" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D224" t="s">
-        <v>200</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="D225" t="s">
-        <v>422</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>117</v>
+        <v>437</v>
       </c>
       <c r="B226" t="s">
-        <v>176</v>
+        <v>443</v>
       </c>
       <c r="C226" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D226" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="B227" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="C227" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D227" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="B228" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C228" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="B229" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C229" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D229" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s">
-        <v>217</v>
+        <v>500</v>
       </c>
       <c r="C230" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D230" t="s">
-        <v>291</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D231" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B232" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="C232" t="s">
-        <v>379</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>289</v>
+        <v>507</v>
+      </c>
+      <c r="D232" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C233" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D233" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="C234" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D234" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D236" t="s">
-        <v>331</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>160</v>
+        <v>489</v>
       </c>
       <c r="B237" t="s">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="C237" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D237" t="s">
-        <v>337</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D238" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="B239" t="s">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="C239" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D239" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>463</v>
+        <v>120</v>
       </c>
       <c r="B240" t="s">
-        <v>469</v>
+        <v>175</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D240" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="B241" t="s">
-        <v>494</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D241" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C242" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D242" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="B243" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D243" t="s">
-        <v>261</v>
+        <v>396</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>185</v>
+        <v>490</v>
       </c>
       <c r="B244" t="s">
-        <v>173</v>
+        <v>500</v>
       </c>
       <c r="C244" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D244" t="s">
-        <v>186</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B245" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C245" t="s">
         <v>98</v>
       </c>
       <c r="D245" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="B246" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="C246" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D246" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>119</v>
+        <v>471</v>
       </c>
       <c r="B247" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="C247" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D247" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="B248" t="s">
-        <v>335</v>
+        <v>501</v>
       </c>
       <c r="C248" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D248" t="s">
-        <v>336</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B249" t="s">
         <v>173</v>
       </c>
       <c r="C249" t="s">
-        <v>379</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>267</v>
+        <v>98</v>
+      </c>
+      <c r="D249" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
       <c r="B250" t="s">
-        <v>173</v>
+        <v>417</v>
       </c>
       <c r="C250" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D250" t="s">
-        <v>194</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>414</v>
+        <v>162</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C251" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D251" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="B252" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C252" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D252" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>488</v>
+        <v>260</v>
       </c>
       <c r="B253" t="s">
-        <v>494</v>
+        <v>177</v>
       </c>
       <c r="C253" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D253" t="s">
-        <v>528</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="B254" t="s">
-        <v>526</v>
+        <v>66</v>
       </c>
       <c r="C254" t="s">
-        <v>529</v>
+        <v>56</v>
       </c>
       <c r="D254" t="s">
-        <v>528</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>415</v>
+        <v>122</v>
       </c>
       <c r="B255" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="C255" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D255" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>489</v>
+        <v>123</v>
       </c>
       <c r="B256" t="s">
-        <v>494</v>
+        <v>175</v>
       </c>
       <c r="C256" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D256" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="B259" t="s">
         <v>177</v>
       </c>
       <c r="C259" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D259" t="s">
-        <v>365</v>
+        <v>508</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="B260" t="s">
-        <v>177</v>
+        <v>455</v>
       </c>
       <c r="C260" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D260" t="s">
-        <v>240</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="B261" t="s">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="C261" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D261" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="B262" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="C262" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D262" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B263" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>464</v>
+        <v>87</v>
       </c>
       <c r="B264" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="C264" t="s">
-        <v>529</v>
+        <v>56</v>
       </c>
       <c r="D264" t="s">
-        <v>528</v>
+        <v>182</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>497</v>
+        <v>215</v>
       </c>
       <c r="B265" t="s">
-        <v>502</v>
+        <v>216</v>
       </c>
       <c r="C265" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D265" t="s">
-        <v>528</v>
+        <v>217</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="B266" t="s">
-        <v>527</v>
+        <v>252</v>
       </c>
       <c r="C266" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D266" t="s">
-        <v>528</v>
+        <v>217</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B267" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C267" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D267" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="B268" t="s">
-        <v>443</v>
+        <v>252</v>
       </c>
       <c r="C268" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D268" t="s">
-        <v>528</v>
+        <v>170</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="B269" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C269" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D269" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="B270" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C270" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D270" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="B271" t="s">
-        <v>178</v>
+        <v>435</v>
       </c>
       <c r="C271" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D271" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>70</v>
+        <v>403</v>
       </c>
       <c r="B272" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="C272" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D272" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="B273" t="s">
-        <v>176</v>
+        <v>468</v>
       </c>
       <c r="C273" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D273" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B274" t="s">
         <v>176</v>
       </c>
       <c r="C274" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D274" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C275" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D275" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C276" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D276" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="B277" t="s">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="C277" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D277" t="s">
-        <v>297</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="B278" t="s">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="C278" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D278" t="s">
-        <v>297</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>477</v>
+        <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>481</v>
+        <v>180</v>
       </c>
       <c r="C279" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D279" t="s">
-        <v>528</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>498</v>
+        <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>502</v>
+        <v>177</v>
       </c>
       <c r="C280" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D280" t="s">
-        <v>528</v>
+        <v>275</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>499</v>
+        <v>126</v>
       </c>
       <c r="B281" t="s">
-        <v>502</v>
+        <v>175</v>
       </c>
       <c r="C281" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D281" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="C282" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D282" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>87</v>
+        <v>465</v>
       </c>
       <c r="B283" t="s">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="C283" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D283" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="B284" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C284" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="B285" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="C285" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D285" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B286" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="C286" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D286" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B287" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C287" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D287" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B288" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="B289" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="C289" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D289" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B290" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="C290" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D290" t="s">
-        <v>171</v>
+        <v>354</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="C291" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D291" t="s">
-        <v>171</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="B292" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="C292" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D292" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="B293" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="C293" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D293" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>230</v>
+        <v>431</v>
       </c>
       <c r="B294" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="C294" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D294" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="B295" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C295" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D295" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="B296" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C296" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="D296" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B297" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C297" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D297" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="B298" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="C298" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D298" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>490</v>
+        <v>35</v>
       </c>
       <c r="B299" t="s">
-        <v>494</v>
+        <v>177</v>
       </c>
       <c r="C299" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B300" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C300" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D300" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="B301" t="s">
-        <v>176</v>
+        <v>408</v>
       </c>
       <c r="C301" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D301" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>125</v>
+        <v>474</v>
       </c>
       <c r="B302" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="C302" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D302" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>517</v>
+        <v>440</v>
       </c>
       <c r="B303" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="C303" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D303" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>518</v>
+        <v>130</v>
       </c>
       <c r="B304" t="s">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="C304" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D304" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="B305" t="s">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="C305" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D305" t="s">
-        <v>281</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="B306" t="s">
         <v>178</v>
       </c>
       <c r="C306" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>126</v>
+        <v>475</v>
       </c>
       <c r="B307" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="C307" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D307" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="B308" t="s">
-        <v>469</v>
+        <v>55</v>
       </c>
       <c r="C308" t="s">
-        <v>529</v>
+        <v>56</v>
       </c>
       <c r="D308" t="s">
-        <v>528</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="B309" t="s">
-        <v>494</v>
+        <v>55</v>
       </c>
       <c r="C309" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D309" t="s">
-        <v>528</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B310" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D310" t="s">
         <v>182</v>
@@ -6329,713 +6260,713 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="B311" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C311" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D311" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B312" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D312" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C313" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D313" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C314" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D314" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>246</v>
+        <v>435</v>
       </c>
       <c r="C315" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="D315" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="B316" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C316" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>519</v>
+        <v>405</v>
       </c>
       <c r="B317" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="C317" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D317" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>149</v>
+        <v>420</v>
       </c>
       <c r="B318" t="s">
-        <v>175</v>
+        <v>434</v>
       </c>
       <c r="C318" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D318" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B319" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C319" t="s">
         <v>98</v>
       </c>
       <c r="D319" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>457</v>
+        <v>257</v>
       </c>
       <c r="B320" t="s">
-        <v>461</v>
+        <v>172</v>
       </c>
       <c r="C320" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D320" t="s">
-        <v>528</v>
+        <v>258</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="B321" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="C321" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D321" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>298</v>
+        <v>441</v>
       </c>
       <c r="B322" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D322" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B323" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="C323" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D323" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
       <c r="B324" t="s">
-        <v>526</v>
+        <v>417</v>
       </c>
       <c r="C324" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D324" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>35</v>
+        <v>406</v>
       </c>
       <c r="B325" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="C325" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="D325" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="B326" t="s">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="C326" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D326" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="B327" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="C327" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D327" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>500</v>
+        <v>206</v>
       </c>
       <c r="B328" t="s">
-        <v>502</v>
+        <v>78</v>
       </c>
       <c r="C328" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D328" t="s">
-        <v>528</v>
+        <v>207</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>466</v>
+        <v>17</v>
       </c>
       <c r="B329" t="s">
-        <v>469</v>
+        <v>179</v>
       </c>
       <c r="C329" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B330" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C330" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B331" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C331" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D331" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="B332" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C332" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D332" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>501</v>
+        <v>21</v>
       </c>
       <c r="B333" t="s">
-        <v>502</v>
+        <v>179</v>
       </c>
       <c r="C333" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B334" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="C334" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D334" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>241</v>
+        <v>466</v>
       </c>
       <c r="B335" t="s">
-        <v>303</v>
+        <v>468</v>
       </c>
       <c r="C335" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D335" t="s">
-        <v>333</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="B336" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="C336" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D336" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>61</v>
+        <v>442</v>
       </c>
       <c r="B337" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="C337" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D337" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
+        <v>391</v>
+      </c>
+      <c r="B338" t="s">
+        <v>245</v>
+      </c>
+      <c r="C338" t="s">
+        <v>395</v>
+      </c>
+      <c r="D338" t="s">
         <v>396</v>
-      </c>
-      <c r="B338" t="s">
-        <v>246</v>
-      </c>
-      <c r="C338" t="s">
-        <v>421</v>
-      </c>
-      <c r="D338" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="B339" t="s">
-        <v>303</v>
+        <v>500</v>
       </c>
       <c r="C339" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D339" t="s">
-        <v>324</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>323</v>
+        <v>62</v>
       </c>
       <c r="B340" t="s">
-        <v>376</v>
+        <v>55</v>
       </c>
       <c r="C340" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D340" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="B341" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="C341" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D341" t="s">
-        <v>380</v>
+        <v>233</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="B342" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="C342" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D342" t="s">
-        <v>528</v>
+        <v>331</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="B343" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C343" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D343" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B344" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C344" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D344" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="B345" t="s">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="C345" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D345" t="s">
-        <v>528</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="B346" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C346" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D346" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="B347" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C347" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D347" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="B348" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="C348" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D348" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>467</v>
+        <v>196</v>
       </c>
       <c r="B349" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="C349" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D349" t="s">
-        <v>528</v>
+        <v>197</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>521</v>
+        <v>196</v>
       </c>
       <c r="B350" t="s">
-        <v>526</v>
+        <v>55</v>
       </c>
       <c r="C350" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D350" t="s">
-        <v>528</v>
+        <v>197</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>442</v>
+        <v>196</v>
       </c>
       <c r="B351" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="C351" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D351" t="s">
-        <v>528</v>
+        <v>197</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="B352" t="s">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="C352" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D352" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="B353" t="s">
-        <v>461</v>
+        <v>216</v>
       </c>
       <c r="C353" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D353" t="s">
-        <v>528</v>
+        <v>223</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>522</v>
+        <v>222</v>
       </c>
       <c r="B354" t="s">
-        <v>526</v>
+        <v>55</v>
       </c>
       <c r="C354" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D354" t="s">
-        <v>528</v>
+        <v>223</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="B355" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="C355" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D355" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="B356" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C356" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D356" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="B357" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C357" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D357" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C358" t="s">
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="B359" t="s">
-        <v>460</v>
+        <v>245</v>
       </c>
       <c r="C359" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D359" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="B360" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C360" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D360" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B361" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C361" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D361" t="s">
         <v>182</v>
@@ -7043,1049 +6974,1049 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B362" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C362" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D362" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="B363" t="s">
-        <v>494</v>
+        <v>175</v>
       </c>
       <c r="C363" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D363" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="B364" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C364" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D364" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>468</v>
+        <v>227</v>
       </c>
       <c r="B365" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="C365" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D365" t="s">
-        <v>528</v>
+        <v>300</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>417</v>
+        <v>220</v>
       </c>
       <c r="B366" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C366" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="D366" t="s">
-        <v>422</v>
+        <v>221</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>523</v>
+        <v>220</v>
       </c>
       <c r="B367" t="s">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="C367" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D367" t="s">
-        <v>528</v>
+        <v>221</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="B369" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="C369" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D369" t="s">
-        <v>305</v>
+        <v>396</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="B370" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C370" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D370" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
+        <v>166</v>
+      </c>
+      <c r="B371" t="s">
+        <v>173</v>
+      </c>
+      <c r="C371" t="s">
+        <v>98</v>
+      </c>
+      <c r="D371" t="s">
         <v>354</v>
-      </c>
-      <c r="B371" t="s">
-        <v>345</v>
-      </c>
-      <c r="C371" t="s">
-        <v>379</v>
-      </c>
-      <c r="D371" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>398</v>
+        <v>25</v>
       </c>
       <c r="B372" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C372" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D372" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="B373" t="s">
-        <v>434</v>
+        <v>172</v>
       </c>
       <c r="C373" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="D373" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="B374" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="C374" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="B375" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="C375" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D375" t="s">
-        <v>360</v>
+        <v>182</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="B376" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C376" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D376" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="B377" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C377" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D377" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="B378" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C378" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="B379" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="C379" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D379" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="B380" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="C380" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D380" t="s">
-        <v>198</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C381" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="D381" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>223</v>
+        <v>453</v>
       </c>
       <c r="B382" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="C382" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="D382" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="B383" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="C383" t="s">
-        <v>170</v>
-      </c>
-      <c r="D383" t="s">
-        <v>224</v>
+        <v>507</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>63</v>
+        <v>498</v>
       </c>
       <c r="B384" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="C384" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D384" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B385" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="C385" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D385" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="B386" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C386" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D386" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="B387" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="C387" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D387" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="B388" t="s">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="C388" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D388" t="s">
-        <v>277</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="B389" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C389" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D389" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C390" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D390" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="B391" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="C391" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>422</v>
+        <v>181</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="B392" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C392" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B393" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C393" t="s">
         <v>56</v>
       </c>
       <c r="D393" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B394" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C394" t="s">
         <v>56</v>
       </c>
       <c r="D394" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>136</v>
+        <v>454</v>
       </c>
       <c r="B395" t="s">
-        <v>176</v>
+        <v>455</v>
       </c>
       <c r="C395" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="D395" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="B396" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="C396" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="B397" t="s">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="C397" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D397" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="B398" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C398" t="s">
-        <v>170</v>
+        <v>507</v>
       </c>
       <c r="D398" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="B399" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C399" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D399" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="B400" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="C400" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="B401" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C401" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D401" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>221</v>
+        <v>376</v>
       </c>
       <c r="B402" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="C402" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D402" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="B403" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C403" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D403" t="s">
-        <v>182</v>
+        <v>396</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="B404" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C404" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D404" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="B405" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="C405" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="D405" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B406" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C406" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="D406" t="s">
-        <v>380</v>
+        <v>226</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="B407" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C407" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D407" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="B408" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C408" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D408" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="B409" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C409" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D409" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B410" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="D410" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B411" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C411" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="B412" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="C412" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D412" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="B413" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="C413" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D413" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="B414" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="C414" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D414" t="s">
-        <v>422</v>
+        <v>298</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>448</v>
+        <v>297</v>
       </c>
       <c r="B415" t="s">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="C415" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D415" t="s">
-        <v>528</v>
+        <v>298</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>418</v>
+        <v>204</v>
       </c>
       <c r="B416" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="C416" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="D416" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>479</v>
+        <v>204</v>
       </c>
       <c r="B417" t="s">
-        <v>481</v>
+        <v>200</v>
       </c>
       <c r="C417" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D417" t="s">
-        <v>528</v>
+        <v>205</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="B418" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="C418" t="s">
-        <v>379</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>339</v>
+        <v>395</v>
+      </c>
+      <c r="D418" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>524</v>
+        <v>50</v>
       </c>
       <c r="B419" t="s">
-        <v>526</v>
+        <v>48</v>
       </c>
       <c r="C419" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c r="B420" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="C420" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D420" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B421" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C421" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D421" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="B422" t="s">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="C422" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="D422" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>493</v>
+        <v>47</v>
       </c>
       <c r="B423" t="s">
-        <v>494</v>
+        <v>48</v>
       </c>
       <c r="C423" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D423" t="s">
-        <v>528</v>
+        <v>181</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="B424" t="s">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="C424" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="D424" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>40</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="C425" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="D425" t="s">
-        <v>260</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B426" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C426" t="s">
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B427" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C427" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D427" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B428" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C428" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D428" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B429" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="C429" t="s">
-        <v>56</v>
+        <v>506</v>
       </c>
       <c r="D429" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>480</v>
+        <v>168</v>
       </c>
       <c r="B430" t="s">
-        <v>481</v>
+        <v>173</v>
       </c>
       <c r="C430" t="s">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="D430" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B431" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C431" t="s">
         <v>1</v>
       </c>
       <c r="D431" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B432" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C432" t="s">
         <v>56</v>
       </c>
       <c r="D432" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="B433" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C433" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D433" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B434" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="C434" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="D434" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B435" t="s">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="C435" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="D435" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B436" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C436" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D436" t="s">
         <v>182</v>
@@ -8093,651 +8024,77 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B437" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C437" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>401</v>
+        <v>144</v>
       </c>
       <c r="B438" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="C438" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D438" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>402</v>
+        <v>145</v>
       </c>
       <c r="B439" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="C439" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D439" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>420</v>
+        <v>146</v>
       </c>
       <c r="B440" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C440" t="s">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="D440" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="B441" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="C441" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D441" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A442" t="s">
-        <v>341</v>
-      </c>
-      <c r="B442" t="s">
-        <v>246</v>
-      </c>
-      <c r="C442" t="s">
-        <v>421</v>
-      </c>
-      <c r="D442" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A443" t="s">
-        <v>226</v>
-      </c>
-      <c r="B443" t="s">
-        <v>303</v>
-      </c>
-      <c r="C443" t="s">
-        <v>379</v>
-      </c>
-      <c r="D443" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A444" t="s">
-        <v>226</v>
-      </c>
-      <c r="B444" t="s">
-        <v>345</v>
-      </c>
-      <c r="C444" t="s">
-        <v>379</v>
-      </c>
-      <c r="D444" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A445" t="s">
-        <v>226</v>
-      </c>
-      <c r="B445" t="s">
-        <v>376</v>
-      </c>
-      <c r="C445" t="s">
-        <v>379</v>
-      </c>
-      <c r="D445" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A446" t="s">
-        <v>226</v>
-      </c>
-      <c r="B446" t="s">
-        <v>76</v>
-      </c>
-      <c r="C446" t="s">
-        <v>170</v>
-      </c>
-      <c r="D446" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A447" t="s">
-        <v>419</v>
-      </c>
-      <c r="B447" t="s">
-        <v>246</v>
-      </c>
-      <c r="C447" t="s">
-        <v>421</v>
-      </c>
-      <c r="D447" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A448" t="s">
-        <v>138</v>
-      </c>
-      <c r="B448" t="s">
-        <v>176</v>
-      </c>
-      <c r="C448" t="s">
-        <v>98</v>
-      </c>
-      <c r="D448" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A449" t="s">
-        <v>139</v>
-      </c>
-      <c r="B449" t="s">
-        <v>176</v>
-      </c>
-      <c r="C449" t="s">
-        <v>98</v>
-      </c>
-      <c r="D449" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A450" t="s">
-        <v>18</v>
-      </c>
-      <c r="B450" t="s">
-        <v>303</v>
-      </c>
-      <c r="C450" t="s">
-        <v>379</v>
-      </c>
-      <c r="D450" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A451" t="s">
-        <v>18</v>
-      </c>
-      <c r="B451" t="s">
-        <v>340</v>
-      </c>
-      <c r="C451" t="s">
-        <v>379</v>
-      </c>
-      <c r="D451" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A452" t="s">
-        <v>18</v>
-      </c>
-      <c r="B452" t="s">
-        <v>180</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1</v>
-      </c>
-      <c r="D452" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A453" t="s">
-        <v>319</v>
-      </c>
-      <c r="B453" t="s">
-        <v>303</v>
-      </c>
-      <c r="C453" t="s">
-        <v>379</v>
-      </c>
-      <c r="D453" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A454" t="s">
-        <v>313</v>
-      </c>
-      <c r="B454" t="s">
-        <v>303</v>
-      </c>
-      <c r="C454" t="s">
-        <v>379</v>
-      </c>
-      <c r="D454" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A455" t="s">
-        <v>313</v>
-      </c>
-      <c r="B455" t="s">
-        <v>345</v>
-      </c>
-      <c r="C455" t="s">
-        <v>379</v>
-      </c>
-      <c r="D455" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A456" t="s">
-        <v>313</v>
-      </c>
-      <c r="B456" t="s">
-        <v>376</v>
-      </c>
-      <c r="C456" t="s">
-        <v>379</v>
-      </c>
-      <c r="D456" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A457" t="s">
-        <v>205</v>
-      </c>
-      <c r="B457" t="s">
-        <v>201</v>
-      </c>
-      <c r="C457" t="s">
-        <v>170</v>
-      </c>
-      <c r="D457" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A458" t="s">
-        <v>205</v>
-      </c>
-      <c r="B458" t="s">
-        <v>177</v>
-      </c>
-      <c r="C458" t="s">
-        <v>170</v>
-      </c>
-      <c r="D458" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A459" t="s">
-        <v>50</v>
-      </c>
-      <c r="B459" t="s">
-        <v>48</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1</v>
-      </c>
-      <c r="D459" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A460" t="s">
-        <v>50</v>
-      </c>
-      <c r="B460" t="s">
-        <v>246</v>
-      </c>
-      <c r="C460" t="s">
-        <v>421</v>
-      </c>
-      <c r="D460" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A461" t="s">
-        <v>47</v>
-      </c>
-      <c r="B461" t="s">
-        <v>181</v>
-      </c>
-      <c r="C461" t="s">
-        <v>379</v>
-      </c>
-      <c r="D461" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A462" t="s">
-        <v>47</v>
-      </c>
-      <c r="B462" t="s">
-        <v>217</v>
-      </c>
-      <c r="C462" t="s">
-        <v>379</v>
-      </c>
-      <c r="D462" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A463" t="s">
-        <v>47</v>
-      </c>
-      <c r="B463" t="s">
-        <v>340</v>
-      </c>
-      <c r="C463" t="s">
-        <v>379</v>
-      </c>
-      <c r="D463" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A464" t="s">
-        <v>47</v>
-      </c>
-      <c r="B464" t="s">
-        <v>48</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1</v>
-      </c>
-      <c r="D464" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A465" t="s">
-        <v>525</v>
-      </c>
-      <c r="B465" t="s">
-        <v>526</v>
-      </c>
-      <c r="C465" t="s">
-        <v>529</v>
-      </c>
-      <c r="D465" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A466" t="s">
-        <v>449</v>
-      </c>
-      <c r="B466" t="s">
-        <v>460</v>
-      </c>
-      <c r="C466" t="s">
-        <v>529</v>
-      </c>
-      <c r="D466" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A467" t="s">
-        <v>39</v>
-      </c>
-      <c r="B467" t="s">
-        <v>178</v>
-      </c>
-      <c r="C467" t="s">
-        <v>1</v>
-      </c>
-      <c r="D467" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A468" t="s">
-        <v>141</v>
-      </c>
-      <c r="B468" t="s">
-        <v>176</v>
-      </c>
-      <c r="C468" t="s">
-        <v>98</v>
-      </c>
-      <c r="D468" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A469" t="s">
-        <v>140</v>
-      </c>
-      <c r="B469" t="s">
-        <v>176</v>
-      </c>
-      <c r="C469" t="s">
-        <v>98</v>
-      </c>
-      <c r="D469" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A470" t="s">
-        <v>187</v>
-      </c>
-      <c r="B470" t="s">
-        <v>173</v>
-      </c>
-      <c r="C470" t="s">
-        <v>170</v>
-      </c>
-      <c r="D470" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A471" t="s">
-        <v>168</v>
-      </c>
-      <c r="B471" t="s">
-        <v>174</v>
-      </c>
-      <c r="C471" t="s">
-        <v>98</v>
-      </c>
-      <c r="D471" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A472" t="s">
-        <v>52</v>
-      </c>
-      <c r="B472" t="s">
-        <v>48</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1</v>
-      </c>
-      <c r="D472" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A473" t="s">
-        <v>74</v>
-      </c>
-      <c r="B473" t="s">
-        <v>66</v>
-      </c>
-      <c r="C473" t="s">
-        <v>56</v>
-      </c>
-      <c r="D473" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A474" t="s">
-        <v>142</v>
-      </c>
-      <c r="B474" t="s">
-        <v>176</v>
-      </c>
-      <c r="C474" t="s">
-        <v>98</v>
-      </c>
-      <c r="D474" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A475" t="s">
-        <v>143</v>
-      </c>
-      <c r="B475" t="s">
-        <v>176</v>
-      </c>
-      <c r="C475" t="s">
-        <v>98</v>
-      </c>
-      <c r="D475" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A476" t="s">
-        <v>91</v>
-      </c>
-      <c r="B476" t="s">
-        <v>78</v>
-      </c>
-      <c r="C476" t="s">
-        <v>56</v>
-      </c>
-      <c r="D476" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A477" t="s">
-        <v>92</v>
-      </c>
-      <c r="B477" t="s">
-        <v>78</v>
-      </c>
-      <c r="C477" t="s">
-        <v>56</v>
-      </c>
-      <c r="D477" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A478" t="s">
-        <v>27</v>
-      </c>
-      <c r="B478" t="s">
-        <v>177</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1</v>
-      </c>
-      <c r="D478" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A479" t="s">
-        <v>144</v>
-      </c>
-      <c r="B479" t="s">
-        <v>176</v>
-      </c>
-      <c r="C479" t="s">
-        <v>98</v>
-      </c>
-      <c r="D479" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A480" t="s">
-        <v>145</v>
-      </c>
-      <c r="B480" t="s">
-        <v>176</v>
-      </c>
-      <c r="C480" t="s">
-        <v>98</v>
-      </c>
-      <c r="D480" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A481" t="s">
-        <v>146</v>
-      </c>
-      <c r="B481" t="s">
-        <v>176</v>
-      </c>
-      <c r="C481" t="s">
-        <v>98</v>
-      </c>
-      <c r="D481" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A482" t="s">
-        <v>356</v>
-      </c>
-      <c r="B482" t="s">
-        <v>345</v>
-      </c>
-      <c r="C482" t="s">
-        <v>379</v>
-      </c>
-      <c r="D482" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D482">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:D442">
+    <sortCondition ref="A107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RH-WebApi/App_Data/cbindex.xlsx
+++ b/RH-WebApi/App_Data/cbindex.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopme\OneDrive\Documents\Code\RichHopkins\RichHopkins-me\RH-WebApi\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12578" xr2:uid="{20F7D0FE-07CA-4C18-AB98-9C06AF4ED4EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="10245" xr2:uid="{20F7D0FE-07CA-4C18-AB98-9C06AF4ED4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,6 @@
     <t>Mushroom Pizza Bites</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/mushroom-pizza-bites/</t>
-  </si>
-  <si>
     <t>Dumplings for Soups and Stews</t>
   </si>
   <si>
@@ -569,414 +566,204 @@
     <t>Breakfasts</t>
   </si>
   <si>
-    <t>https://rhop.me/KetoHolidays</t>
-  </si>
-  <si>
-    <t>https://rhop.me/KetoCrockpot</t>
-  </si>
-  <si>
-    <t>http://www.ketovangelistkitchen.com/dumplings-for-soups-stews/</t>
-  </si>
-  <si>
     <t>Lemon Mascarpone Tarts</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/lemon-mascarpone-tarts/</t>
-  </si>
-  <si>
     <t>Waffle Cones</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/waffle-cones/</t>
-  </si>
-  <si>
-    <t>http://www.ketovangelistkitchen.com/blueberry-cheesecake-scones/</t>
-  </si>
-  <si>
     <t>Blueberry Cheesecake Scones</t>
   </si>
   <si>
     <t>Cinnamon Pecan Muffins</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/cinnamon-pecan-muffins/</t>
-  </si>
-  <si>
     <t>Lemon Shortbread Cookies</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/lemon-shortbread-cookies/</t>
-  </si>
-  <si>
     <t>Cheesy Biscuits</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/cheesy-biscuits/</t>
-  </si>
-  <si>
     <t>Sausage and Kale Soup</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/sausage-and-kale-soup/</t>
-  </si>
-  <si>
     <t>Lasagna</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/lasagna/</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/tarragon-turkey-with-leeks/</t>
-  </si>
-  <si>
     <t>Baked BBQ Chicken</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/baked-bbq-chicken/</t>
-  </si>
-  <si>
     <t>Turkey Mushroom Stroganoff</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/turkey-mushroom-stroganoff/</t>
-  </si>
-  <si>
     <t>Roast Chicken with Wild Mushroom Sauce</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/roast-chicken-with-wild-mushroom-sauce/</t>
-  </si>
-  <si>
     <t>Chocolate Milk</t>
   </si>
   <si>
     <t>Chocolate</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/chocolate-milk/</t>
-  </si>
-  <si>
     <t>Chocolate Hazelnut Granola</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/chocolate-hazelnut-granola/</t>
-  </si>
-  <si>
     <t>Chocolate Orange Truffles</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/chocolate-orange-truffles/</t>
-  </si>
-  <si>
     <t>Mushroom Leek Egg Muffins</t>
   </si>
   <si>
     <t>Eggs</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/mushroom-leek-egg-muffins/</t>
-  </si>
-  <si>
     <t>Baked Creamed Spinach</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/baked-creamed-spinach/</t>
-  </si>
-  <si>
     <t>Smoked Salmon Baked Eggs</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/smoked-salmon-baked-eggs/</t>
-  </si>
-  <si>
     <t>Sausage and Mushroom Bake</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/sausage-and-mushroom-bake/</t>
-  </si>
-  <si>
     <t>Fat Bombs</t>
   </si>
   <si>
     <t>Tomato Sardine Salad</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/tomato-sardine-salad/</t>
-  </si>
-  <si>
     <t>Smoked Salmon and Sprout Saute</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/smoked-salmon-and-sprout-saute/</t>
-  </si>
-  <si>
     <t>Mushroom Tuna Melt</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/mushroom-tuna-melt/</t>
-  </si>
-  <si>
     <t>Nuts</t>
   </si>
   <si>
     <t>Sage and Onion Pork</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/sage-and-onion-pork/</t>
-  </si>
-  <si>
     <t>Bacon Leek Melt</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/bacon-leek-melt/</t>
-  </si>
-  <si>
     <t>How to Cook Pork Chops</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/how-to-cook-pork-chops/</t>
-  </si>
-  <si>
     <t>Loaded Twice Baked Cauliflower</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/loaded-twice-baked-cauliflower/</t>
-  </si>
-  <si>
     <t>Pork Chops with Bacon and Cabbage</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/pork-chops-with-bacon-and-cabbage/</t>
-  </si>
-  <si>
     <t>Sauces / Dressings</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/lemon-curd/</t>
-  </si>
-  <si>
-    <t>http://www.ketovangelistkitchen.com/bbq-sauce/</t>
-  </si>
-  <si>
     <t>Soups</t>
   </si>
   <si>
     <t>Herbed Celery Cucumber Salad</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/herbed-celery-cucumber-salad/</t>
-  </si>
-  <si>
     <t>Avocado Walnut Salad</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/avocado-walnut-salad/</t>
-  </si>
-  <si>
     <t>Almond Parmesan Squash</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/almond-parmesan-squash/</t>
-  </si>
-  <si>
     <t>Snacks</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/hot-vanilla-seed-cereal/</t>
-  </si>
-  <si>
     <t>Hot Vanilla Seed Cereal</t>
   </si>
   <si>
     <t>Creamy Cucumber Soup</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/creamy-cucumber-soup/</t>
-  </si>
-  <si>
     <t>Raspberry Almond Muffins</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29149</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/26866</t>
-  </si>
-  <si>
     <t>Meringue Cookies</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25817</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/25409</t>
-  </si>
-  <si>
     <t>Tomato Basil Scones</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/22130</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/22650</t>
-  </si>
-  <si>
     <t>Dark Chocolate Espresso Cookies</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/21450</t>
-  </si>
-  <si>
     <t>Cheesy Scones</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/21158</t>
-  </si>
-  <si>
     <t>Sausage Scramble</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25681</t>
-  </si>
-  <si>
     <t>Oven Bacon and Eggs for Two</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/22266</t>
-  </si>
-  <si>
     <t>Orange Cranberry Almond Cream</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/24023</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/22098</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/21830</t>
-  </si>
-  <si>
     <t>Cheesy Pea Shoot Scramble</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/20528</t>
-  </si>
-  <si>
     <t>Leek and Mushroom Quiche Cups</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/20943</t>
-  </si>
-  <si>
     <t>Leek and Mushroom Omelette</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/19845</t>
-  </si>
-  <si>
     <t>Hot Chocolate</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/26869</t>
-  </si>
-  <si>
     <t>Mint Chocolate Pudding</t>
   </si>
   <si>
     <t>Peanut Butter Ice Cream</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25863</t>
-  </si>
-  <si>
     <t>Creamy Peanut Butter Mousse</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/21626</t>
-  </si>
-  <si>
     <t>Creamy BBQ Shrimp</t>
   </si>
   <si>
     <t>Dinners</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29108</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/28885</t>
-  </si>
-  <si>
     <t>Grass-fed v. Grain-fed - Perfect Steak Without Grill</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/26045</t>
-  </si>
-  <si>
     <t>Turkey Burger Salad</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25160</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/24867</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/19763</t>
-  </si>
-  <si>
     <t>Grilled Lemon Prawns with Coconut Cream Squash Noodles</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/19760</t>
-  </si>
-  <si>
     <t>Prawns with Leeks and Lemon Pepper</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/19754</t>
-  </si>
-  <si>
     <t>Chicken and Cabbage Carbonara</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/18880</t>
-  </si>
-  <si>
     <t>Glazed Salmon</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/18515</t>
-  </si>
-  <si>
     <t>Lemon Buttered Shrimp</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/16842</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/16858</t>
-  </si>
-  <si>
     <t>Lemon Sauce</t>
   </si>
   <si>
     <t>Jams / Creams / Toppings</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/25609</t>
-  </si>
-  <si>
     <t>Strawberry Jam</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/24664</t>
-  </si>
-  <si>
     <t>Lunches</t>
   </si>
   <si>
@@ -995,90 +782,42 @@
     <t>Strawberry Pea Shoot Salad</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/19647</t>
-  </si>
-  <si>
     <t>Gazpacho Salad</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/18796</t>
-  </si>
-  <si>
     <t>Avocado and Walnut Salad</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/18182</t>
-  </si>
-  <si>
     <t>Celery and Cucumber Salad with Herbs</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/17874</t>
-  </si>
-  <si>
     <t>Salad with Beets and Yogurt Dressing</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/17631</t>
-  </si>
-  <si>
     <t>Zucchini and Cherry Tomato Salad</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/16855</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/28863</t>
-  </si>
-  <si>
     <t>SANE Jellied Cranberry Sauce</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/26742</t>
-  </si>
-  <si>
     <t>SANE Cranberry Sauce</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/26738</t>
-  </si>
-  <si>
     <t>Braised Cabbage</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29121</t>
-  </si>
-  <si>
     <t>Tarragon Green Beans</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/29008</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/26271</t>
-  </si>
-  <si>
     <t>Brussels Sprouts with Leeks and Poppy Seeds</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/20969</t>
-  </si>
-  <si>
     <t>Cauliflower Cheese</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/20060</t>
-  </si>
-  <si>
     <t>Caramelized Brussels Sprouts with Lemon</t>
   </si>
   <si>
-    <t>http://carriebrown.com/archives/17871</t>
-  </si>
-  <si>
-    <t>http://carriebrown.com/archives/17201</t>
-  </si>
-  <si>
     <t>Ten Minute Dinners</t>
   </si>
   <si>
@@ -1088,9 +827,6 @@
     <t>Bacon, Leek, Chicken Ragout</t>
   </si>
   <si>
-    <t>https://rhop.me/KetoIceCream</t>
-  </si>
-  <si>
     <t>All That Mac &amp; Cheese Soup</t>
   </si>
   <si>
@@ -1214,9 +950,6 @@
     <t>The Keto Soup Bowl</t>
   </si>
   <si>
-    <t>https://rhop.me/KetoSoup</t>
-  </si>
-  <si>
     <t>Almond Mocha</t>
   </si>
   <si>
@@ -1532,25 +1265,292 @@
     <t>Additions</t>
   </si>
   <si>
-    <t>https://rhop.me/KetoBeverages</t>
-  </si>
-  <si>
     <t>101 Keto Beverages</t>
   </si>
   <si>
     <t>Herb Butter Chicken Cutlets</t>
   </si>
   <si>
-    <t>http://www.ketovangelistkitchen.com/herb-butter-chicken-cutlets/</t>
-  </si>
-  <si>
-    <t>FREE RECIPES - Ketovangelist Kitchen</t>
-  </si>
-  <si>
-    <t>FREE RECIPES - Carrie Brown | Life in the Sane Lane</t>
-  </si>
-  <si>
-    <t>http://www.ketovangelistkitchen.com/mint-chocolate-pudding/</t>
+    <t>Carrie Brown | Life in the Sane Lane</t>
+  </si>
+  <si>
+    <t>Ketovangelist Kitchen</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/17201</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/18182</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/16858</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/28885</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26271</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/28863</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25409</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/29121</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/21830</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/20969</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/17871</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/20060</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/17874</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/20528</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/21158</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/18880</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/29108</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/21626</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/21450</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/18796</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/18515</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26045</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/19760</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26869</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/19845</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/20943</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/16842</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25609</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25817</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/24023</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/22266</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25863</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/19754</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/29149</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/17631</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26738</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26742</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25681</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/19763</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/22650</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/24664</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/19647</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/26866</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/29008</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/22130</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/24867</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/25160</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/22098</t>
+  </si>
+  <si>
+    <t>carriebrown.com/archives/16855</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/almond-parmesan-squash/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/avocado-walnut-salad/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/bacon-leek-melt/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/baked-bbq-chicken/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/baked-creamed-spinach/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/bbq-sauce/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/blueberry-cheesecake-scones/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/cheesy-biscuits/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/chocolate-hazelnut-granola/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/chocolate-milk/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/chocolate-orange-truffles/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/cinnamon-pecan-muffins/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/creamy-cucumber-soup/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/dumplings-for-soups-stews/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/herb-butter-chicken-cutlets/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/herbed-celery-cucumber-salad/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/hot-vanilla-seed-cereal/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/how-to-cook-pork-chops/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/lasagna/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/lemon-curd/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/lemon-mascarpone-tarts/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/lemon-shortbread-cookies/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/loaded-twice-baked-cauliflower/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/mint-chocolate-pudding/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/mushroom-leek-egg-muffins/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/mushroom-pizza-bites/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/mushroom-tuna-melt/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/pork-chops-with-bacon-and-cabbage/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/roast-chicken-with-wild-mushroom-sauce/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/sage-and-onion-pork/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/sausage-and-kale-soup/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/sausage-and-mushroom-bake/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/smoked-salmon-and-sprout-saute/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/smoked-salmon-baked-eggs/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/tarragon-turkey-with-leeks/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/tomato-sardine-salad/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/turkey-mushroom-stroganoff/</t>
+  </si>
+  <si>
+    <t>www.ketovangelistkitchen.com/waffle-cones/</t>
+  </si>
+  <si>
+    <t>rhop.me/KetoBeverages</t>
+  </si>
+  <si>
+    <t>rhop.me/KetoHolidays</t>
+  </si>
+  <si>
+    <t>rhop.me/KetoCrockpot</t>
+  </si>
+  <si>
+    <t>rhop.me/KetoIceCream</t>
+  </si>
+  <si>
+    <t>rhop.me/KetoSoup</t>
   </si>
 </sst>
 </file>
@@ -1566,12 +1566,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1586,10 +1592,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,3621 +1911,3622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819773F0-E1F2-4255-B6F4-E7D86B3CCE13}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390:A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29.46484375" customWidth="1"/>
-    <col min="2" max="2" width="43.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
     <col min="3" max="3" width="41.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>500</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>358</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>369</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="C29" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>381</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D33" t="s">
-        <v>343</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="C41" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="C46" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D46" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D47" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D48" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>500</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D49" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>379</v>
       </c>
       <c r="C52" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>387</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="C59" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="C62" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="C63" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="C65" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D67" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D68" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="C71" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D71" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
       <c r="C74" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C75" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D77" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D80" t="s">
-        <v>347</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="C81" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="B83" t="s">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="B84" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="C84" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D86" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D89" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="C90" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="C93" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="B94" t="s">
-        <v>468</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D94" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="B95" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D95" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D96" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="C97" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D98" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="C99" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D102" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>364</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C103" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D103" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="C112" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D117" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>480</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>500</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>506</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>191</v>
+        <v>415</v>
+      </c>
+      <c r="D120" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D121" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>481</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="C122" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D123" t="s">
-        <v>182</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D125" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" t="s">
+        <v>415</v>
+      </c>
+      <c r="D126" t="s">
         <v>435</v>
-      </c>
-      <c r="C126" t="s">
-        <v>503</v>
-      </c>
-      <c r="D126" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D127" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>449</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>455</v>
+        <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D129" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D130" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="B132" t="s">
-        <v>476</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="B133" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D133" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>450</v>
+        <v>229</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>246</v>
       </c>
       <c r="C136" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D136" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
-      </c>
-      <c r="D137" t="s">
-        <v>396</v>
+        <v>415</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C139" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D139" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s">
-        <v>468</v>
+        <v>235</v>
       </c>
       <c r="C140" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D141" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D142" t="s">
-        <v>181</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="C145" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D146" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C147" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D147" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C148" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D148" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="C150" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D150" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D152" t="s">
-        <v>181</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="B153" t="s">
-        <v>434</v>
+        <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D153" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D154" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D155" t="s">
-        <v>181</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>482</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>500</v>
+        <v>179</v>
       </c>
       <c r="C157" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D157" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>470</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>476</v>
+        <v>197</v>
       </c>
       <c r="C158" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D158" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
       <c r="B159" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="C159" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D159" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D160" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C161" t="s">
-        <v>395</v>
-      </c>
-      <c r="D161" t="s">
-        <v>396</v>
+        <v>415</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C162" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="D164" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D165" t="s">
-        <v>354</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D166" t="s">
-        <v>182</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D167" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D168" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C169" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D170" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C171" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D171" t="s">
-        <v>183</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D172" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D173" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="C174" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D174" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D175" t="s">
-        <v>181</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="D176" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="D177" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D178" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>468</v>
+        <v>197</v>
       </c>
       <c r="C179" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D179" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>484</v>
+        <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C180" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D180" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>417</v>
+        <v>211</v>
       </c>
       <c r="C181" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>402</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>408</v>
+        <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D182" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>427</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>171</v>
       </c>
       <c r="C183" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D183" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D184" t="s">
-        <v>308</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>485</v>
+        <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D185" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C186" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D186" t="s">
-        <v>296</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>428</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>193</v>
       </c>
       <c r="C187" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D187" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>460</v>
+        <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>468</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D188" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C189" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D189" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C190" t="s">
-        <v>395</v>
-      </c>
-      <c r="D190" t="s">
-        <v>396</v>
+        <v>416</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D191" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>411</v>
+        <v>170</v>
       </c>
       <c r="B192" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
       <c r="C192" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D192" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="B193" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C193" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D193" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="B194" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D194" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="B195" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="C195" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
-        <v>182</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="C196" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D196" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>504</v>
+        <v>217</v>
       </c>
       <c r="B197" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C197" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D197" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D198" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="B199" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C199" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D199" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>486</v>
+        <v>160</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>211</v>
       </c>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>413</v>
+        <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
       <c r="C201" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D201" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D202" t="s">
-        <v>181</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D203" t="s">
-        <v>285</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>434</v>
+        <v>176</v>
       </c>
       <c r="C204" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D204" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D205" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B206" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C206" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D206" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="B207" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D207" t="s">
-        <v>181</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B208" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C208" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="D208" t="s">
-        <v>354</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>366</v>
+        <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D209" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="C210" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="D210" t="s">
-        <v>354</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C211" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D211" t="s">
-        <v>199</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C212" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D212" t="s">
-        <v>396</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="C213" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="D213" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="C214" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D214" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="B215" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C215" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D215" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C216" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D216" t="s">
-        <v>283</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C217" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D217" t="s">
-        <v>283</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="C218" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D218" t="s">
-        <v>283</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="B219" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>507</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>281</v>
+        <v>416</v>
+      </c>
+      <c r="D219" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C220" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D220" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="B221" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="C221" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D221" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="D222" t="s">
-        <v>182</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="B223" t="s">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="C223" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D223" t="s">
-        <v>310</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C224" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="D224" t="s">
-        <v>354</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="C225" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D225" t="s">
-        <v>243</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>437</v>
+        <v>181</v>
       </c>
       <c r="B226" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
       <c r="C226" t="s">
+        <v>416</v>
+      </c>
+      <c r="D226" t="s">
         <v>503</v>
-      </c>
-      <c r="D226" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>468</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="B228" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>185</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>488</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="C230" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C231" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="C232" t="s">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>314</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="B233" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C233" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>193</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="B234" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="C234" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>396</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>462</v>
+        <v>36</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
       <c r="C236" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="B237" t="s">
-        <v>500</v>
+        <v>176</v>
       </c>
       <c r="C237" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="C238" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>396</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>175</v>
       </c>
       <c r="C239" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B240" t="s">
         <v>175</v>
       </c>
       <c r="C240" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C241" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>396</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="B242" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C242" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>239</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>396</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>490</v>
+        <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>500</v>
+        <v>177</v>
       </c>
       <c r="C244" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>438</v>
+        <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="C246" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>471</v>
+        <v>42</v>
       </c>
       <c r="B247" t="s">
-        <v>476</v>
+        <v>177</v>
       </c>
       <c r="C247" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B248" t="s">
-        <v>501</v>
+        <v>176</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C249" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>414</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>175</v>
       </c>
       <c r="C250" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A251" t="s">
-        <v>162</v>
+      <c r="A251" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C251" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C252" t="s">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>261</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C253" t="s">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -5527,726 +5535,726 @@
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="B259" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C259" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="B260" t="s">
-        <v>455</v>
+        <v>177</v>
       </c>
       <c r="C260" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>472</v>
+        <v>34</v>
       </c>
       <c r="B261" t="s">
-        <v>476</v>
+        <v>176</v>
       </c>
       <c r="C261" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>473</v>
+        <v>17</v>
       </c>
       <c r="B262" t="s">
-        <v>476</v>
+        <v>178</v>
       </c>
       <c r="C262" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C264" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="B265" t="s">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C267" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>170</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B268" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="C268" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>170</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C269" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>230</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B270" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C270" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>430</v>
+        <v>29</v>
       </c>
       <c r="B271" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="C271" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
       <c r="B272" t="s">
-        <v>408</v>
+        <v>48</v>
       </c>
       <c r="C272" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="B273" t="s">
-        <v>468</v>
+        <v>178</v>
       </c>
       <c r="C273" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B274" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C274" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B275" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C275" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B276" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C276" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>491</v>
+        <v>52</v>
       </c>
       <c r="B277" t="s">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="C277" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>492</v>
+        <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C278" t="s">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="B279" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="C279" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D279" t="s">
-        <v>275</v>
+        <v>506</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B280" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C280" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D280" t="s">
-        <v>275</v>
+        <v>506</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B281" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C281" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D281" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>439</v>
+        <v>65</v>
       </c>
       <c r="B282" t="s">
-        <v>443</v>
+        <v>66</v>
       </c>
       <c r="C282" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D282" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>465</v>
+        <v>67</v>
       </c>
       <c r="B283" t="s">
-        <v>468</v>
+        <v>66</v>
       </c>
       <c r="C283" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D283" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B284" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C284" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D284" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="B285" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C285" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D285" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>272</v>
+        <v>69</v>
       </c>
       <c r="B286" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="C286" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D286" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="B287" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="C287" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D287" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C288" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D288" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="B289" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C289" t="s">
-        <v>395</v>
+        <v>56</v>
       </c>
       <c r="D289" t="s">
-        <v>396</v>
+        <v>506</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B290" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="C290" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D290" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="B291" t="s">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="C291" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D291" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="B292" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C292" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D292" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B293" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C293" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D293" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="B294" t="s">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="C294" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D294" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B295" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="C295" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D295" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="B296" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C296" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D296" t="s">
-        <v>288</v>
+        <v>506</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="B297" t="s">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="C297" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D297" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="B298" t="s">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="C298" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D298" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="C299" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D299" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B300" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="C300" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D300" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>404</v>
+        <v>87</v>
       </c>
       <c r="B301" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="C301" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D301" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>474</v>
+        <v>95</v>
       </c>
       <c r="B302" t="s">
-        <v>476</v>
+        <v>176</v>
       </c>
       <c r="C302" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D302" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>440</v>
+        <v>94</v>
       </c>
       <c r="B303" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="C303" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D303" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B304" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D304" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>415</v>
+        <v>61</v>
       </c>
       <c r="B305" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D305" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B306" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="C306" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D306" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>475</v>
+        <v>63</v>
       </c>
       <c r="B307" t="s">
-        <v>476</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D307" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B308" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C308" t="s">
         <v>56</v>
       </c>
       <c r="D308" t="s">
-        <v>182</v>
+        <v>506</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="B309" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C309" t="s">
+        <v>56</v>
+      </c>
+      <c r="D309" t="s">
         <v>506</v>
-      </c>
-      <c r="D309" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B310" t="s">
         <v>55</v>
@@ -6255,1659 +6263,1659 @@
         <v>56</v>
       </c>
       <c r="D310" t="s">
-        <v>182</v>
+        <v>506</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>370</v>
+        <v>71</v>
       </c>
       <c r="B311" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="C311" t="s">
-        <v>395</v>
+        <v>56</v>
       </c>
       <c r="D311" t="s">
-        <v>396</v>
+        <v>506</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="B312" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="C312" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D312" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="B313" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="C313" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D313" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B314" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C314" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D314" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>90</v>
       </c>
       <c r="B315" t="s">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="C315" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D315" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B316" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="C316" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D316" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>405</v>
+        <v>91</v>
       </c>
       <c r="B317" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="C317" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D317" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="B318" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="C318" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="D318" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B319" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C319" t="s">
         <v>98</v>
       </c>
       <c r="D319" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="B320" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C320" t="s">
+        <v>98</v>
+      </c>
+      <c r="D320" t="s">
         <v>507</v>
-      </c>
-      <c r="D320" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="B321" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="C321" t="s">
+        <v>98</v>
+      </c>
+      <c r="D321" t="s">
         <v>507</v>
-      </c>
-      <c r="D321" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>441</v>
+        <v>150</v>
       </c>
       <c r="B322" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="C322" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D322" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>495</v>
+        <v>147</v>
       </c>
       <c r="B323" t="s">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="C323" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D323" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="B324" t="s">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="C324" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D324" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="B325" t="s">
-        <v>408</v>
+        <v>174</v>
       </c>
       <c r="C325" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D325" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>433</v>
+        <v>101</v>
       </c>
       <c r="B326" t="s">
-        <v>435</v>
+        <v>174</v>
       </c>
       <c r="C326" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D326" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>496</v>
+        <v>102</v>
       </c>
       <c r="B327" t="s">
-        <v>500</v>
+        <v>174</v>
       </c>
       <c r="C327" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D327" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="B328" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C328" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D328" t="s">
-        <v>207</v>
+        <v>507</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B329" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C329" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D329" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B330" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C330" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D330" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="B331" t="s">
-        <v>434</v>
+        <v>174</v>
       </c>
       <c r="C331" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D331" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="B332" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C332" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D332" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B333" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C333" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D333" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B334" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C334" t="s">
         <v>98</v>
       </c>
       <c r="D334" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="B335" t="s">
-        <v>468</v>
+        <v>172</v>
       </c>
       <c r="C335" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D335" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B336" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C336" t="s">
         <v>98</v>
       </c>
       <c r="D336" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>442</v>
+        <v>155</v>
       </c>
       <c r="B337" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="C337" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D337" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="B338" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="C338" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D338" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>497</v>
+        <v>157</v>
       </c>
       <c r="B339" t="s">
-        <v>500</v>
+        <v>172</v>
       </c>
       <c r="C339" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D339" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="B340" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="C340" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D340" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="B341" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="C341" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D341" t="s">
-        <v>233</v>
+        <v>507</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="B342" t="s">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c r="C342" t="s">
+        <v>98</v>
+      </c>
+      <c r="D342" t="s">
         <v>507</v>
-      </c>
-      <c r="D342" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>372</v>
+        <v>110</v>
       </c>
       <c r="B343" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C343" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D343" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
       <c r="B344" t="s">
-        <v>408</v>
+        <v>174</v>
       </c>
       <c r="C344" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D344" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="B345" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C345" t="s">
+        <v>98</v>
+      </c>
+      <c r="D345" t="s">
         <v>507</v>
-      </c>
-      <c r="D345" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>335</v>
+        <v>113</v>
       </c>
       <c r="B346" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C346" t="s">
+        <v>98</v>
+      </c>
+      <c r="D346" t="s">
         <v>507</v>
-      </c>
-      <c r="D346" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B347" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C347" t="s">
         <v>98</v>
       </c>
       <c r="D347" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="B348" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C348" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D348" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B349" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C349" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D349" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="B350" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C350" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D350" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B351" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="C351" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D351" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B352" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C352" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D352" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B353" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C353" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D353" t="s">
-        <v>223</v>
+        <v>507</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="B354" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C354" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D354" t="s">
-        <v>223</v>
+        <v>507</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B355" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C355" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D355" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="B356" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C356" t="s">
+        <v>98</v>
+      </c>
+      <c r="D356" t="s">
         <v>507</v>
-      </c>
-      <c r="D356" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="B357" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="C357" t="s">
+        <v>98</v>
+      </c>
+      <c r="D357" t="s">
         <v>507</v>
-      </c>
-      <c r="D357" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C358" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D358" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="B359" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C359" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D359" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B360" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C360" t="s">
         <v>98</v>
       </c>
       <c r="D360" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B361" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C361" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D361" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B362" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C362" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D362" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B363" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C363" t="s">
         <v>98</v>
       </c>
       <c r="D363" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="B364" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C364" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D364" t="s">
-        <v>228</v>
+        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B365" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="C365" t="s">
+        <v>98</v>
+      </c>
+      <c r="D365" t="s">
         <v>507</v>
-      </c>
-      <c r="D365" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="B366" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="C366" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D366" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="B367" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C367" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="D367" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C368" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D368" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="B369" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C369" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D369" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B370" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C370" t="s">
         <v>98</v>
       </c>
       <c r="D370" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B371" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C371" t="s">
         <v>98</v>
       </c>
       <c r="D371" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="B372" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C372" t="s">
+        <v>98</v>
+      </c>
+      <c r="D372" t="s">
         <v>507</v>
-      </c>
-      <c r="D372" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B373" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C373" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D373" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="B374" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C374" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D374" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="B375" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C375" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D375" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="B376" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C376" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D376" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="B377" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="C377" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D377" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B378" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C378" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D378" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="B379" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="C379" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D379" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>138</v>
       </c>
       <c r="B380" t="s">
-        <v>434</v>
+        <v>174</v>
       </c>
       <c r="C380" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D380" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="B381" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C381" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D381" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
       <c r="B382" t="s">
-        <v>455</v>
+        <v>174</v>
       </c>
       <c r="C382" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D382" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="B383" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="C383" t="s">
+        <v>98</v>
+      </c>
+      <c r="D383" t="s">
         <v>507</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>498</v>
+        <v>168</v>
       </c>
       <c r="B384" t="s">
-        <v>500</v>
+        <v>172</v>
       </c>
       <c r="C384" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D384" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="B385" t="s">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c r="C385" t="s">
+        <v>98</v>
+      </c>
+      <c r="D385" t="s">
         <v>507</v>
-      </c>
-      <c r="D385" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B386" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C386" t="s">
         <v>98</v>
       </c>
       <c r="D386" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B387" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C387" t="s">
         <v>98</v>
       </c>
       <c r="D387" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>467</v>
+        <v>145</v>
       </c>
       <c r="B388" t="s">
-        <v>468</v>
+        <v>174</v>
       </c>
       <c r="C388" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="D388" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B389" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C389" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D389" t="s">
-        <v>182</v>
+        <v>507</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B390" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C390" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D390" t="s">
-        <v>259</v>
+        <v>508</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="B391" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C391" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D391" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="B392" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C392" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D392" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="B393" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C393" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D393" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="B394" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C394" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D394" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="B395" t="s">
-        <v>455</v>
+        <v>212</v>
       </c>
       <c r="C395" t="s">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="D395" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="B396" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C396" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D396" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="B397" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C397" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D397" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B398" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C398" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D398" t="s">
-        <v>342</v>
+        <v>508</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="B399" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C399" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D399" t="s">
-        <v>201</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="B400" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C400" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D400" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="B401" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C401" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D401" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="B402" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C402" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D402" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="B403" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C403" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D403" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B404" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C404" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D404" t="s">
-        <v>264</v>
+        <v>508</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="B405" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C405" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D405" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="B406" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="C406" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D406" t="s">
-        <v>226</v>
+        <v>508</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="B407" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C407" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D407" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="B408" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C408" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D408" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="B409" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C409" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D409" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="B410" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="C410" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D410" t="s">
-        <v>299</v>
+        <v>508</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="B411" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C411" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D411" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="B412" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C412" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D412" t="s">
-        <v>299</v>
+        <v>508</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B413" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="C413" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D413" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B414" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="C414" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D414" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="B415" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="C415" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D415" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="B416" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C416" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D416" t="s">
-        <v>205</v>
+        <v>508</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="B417" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C417" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D417" t="s">
-        <v>205</v>
+        <v>508</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="B418" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C418" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D418" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="B419" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C419" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D419" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="B420" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C420" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D420" t="s">
-        <v>276</v>
+        <v>508</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="B421" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C421" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D421" t="s">
-        <v>276</v>
+        <v>508</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="B422" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C422" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D422" t="s">
-        <v>276</v>
+        <v>508</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="B423" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C423" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D423" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>499</v>
+        <v>302</v>
       </c>
       <c r="B424" t="s">
-        <v>500</v>
+        <v>212</v>
       </c>
       <c r="C424" t="s">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="D424" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>282</v>
       </c>
       <c r="B425" t="s">
-        <v>434</v>
+        <v>212</v>
       </c>
       <c r="C425" t="s">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="D425" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="B426" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C426" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D426" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="B427" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C427" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D427" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="B428" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C428" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D428" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
@@ -7915,186 +7923,186 @@
         <v>186</v>
       </c>
       <c r="B429" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C429" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D429" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="B430" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C430" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D430" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="B431" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C431" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D431" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B432" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C432" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D432" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="B433" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C433" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D433" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="B434" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C434" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D434" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="B435" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C435" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D435" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="B436" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C436" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D436" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="B437" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C437" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D437" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="B438" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C438" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D438" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="B439" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C439" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D439" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="B440" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C440" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D440" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="B441" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="C441" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="D441" t="s">
-        <v>333</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D442">
-    <sortCondition ref="A107"/>
+  <sortState ref="A1:D441">
+    <sortCondition ref="C83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
